--- a/schedules/schedule_classrooms-grouped.xlsx
+++ b/schedules/schedule_classrooms-grouped.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="15" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I15" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="17" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="15" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="15" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="I9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="13" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="S9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="13" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="15" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="D14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="N16" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="13" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="N18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" s="15" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" s="13" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="15" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="X9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="13" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="15" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="X11" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y11" s="15" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="X12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="13" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="X13" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="17" t="inlineStr">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -10287,7 +10287,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="D5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="13" t="inlineStr">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="N5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="13" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="13" t="inlineStr">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="15" t="inlineStr">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="15" t="inlineStr">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="N8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="15" t="inlineStr">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="S8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="15" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="X8" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="15" t="inlineStr">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="X9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="15" t="inlineStr">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -10903,7 +10903,7 @@
       </c>
       <c r="D11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
@@ -10926,7 +10926,7 @@
       </c>
       <c r="I11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="13" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="D12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" s="13" t="inlineStr">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="N12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="13" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="S12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="X12" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="13" t="inlineStr">
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" s="13" t="inlineStr">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="N13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="13" t="inlineStr">
@@ -11200,7 +11200,7 @@
       </c>
       <c r="S13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="13" t="inlineStr">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="X13" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="13" t="inlineStr">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="N14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O14" s="13" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="S14" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T14" s="13" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="D15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" s="15" t="inlineStr">
@@ -11366,7 +11366,7 @@
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" s="15" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
@@ -11435,7 +11435,7 @@
       </c>
       <c r="X15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y15" s="15" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
@@ -11489,7 +11489,7 @@
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" s="15" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="N16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="15" t="inlineStr">
@@ -11535,7 +11535,7 @@
       </c>
       <c r="S16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="15" t="inlineStr">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="X16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="15" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="D17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="15" t="inlineStr">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
@@ -11635,7 +11635,7 @@
       </c>
       <c r="N17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O17" s="15" t="inlineStr">
@@ -11658,7 +11658,7 @@
       </c>
       <c r="S17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T17" s="15" t="inlineStr">
@@ -11681,7 +11681,7 @@
       </c>
       <c r="X17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y17" s="15" t="inlineStr">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="D18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="15" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="N18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O18" s="15" t="inlineStr">
@@ -11763,7 +11763,7 @@
       </c>
       <c r="S18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" s="15" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="X18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y18" s="15" t="inlineStr">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -11842,7 +11842,7 @@
       </c>
       <c r="I19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" s="13" t="inlineStr">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="N19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="13" t="inlineStr">
@@ -11888,7 +11888,7 @@
       </c>
       <c r="S19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T19" s="13" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="X19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y19" s="13" t="inlineStr">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" s="13" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="I20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" s="13" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="N20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O20" s="13" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="S20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T20" s="13" t="inlineStr">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="X20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y20" s="13" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="I21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" s="13" t="inlineStr">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="N21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O21" s="13" t="inlineStr">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="S21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T21" s="13" t="inlineStr">
@@ -12139,7 +12139,7 @@
       </c>
       <c r="X21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y21" s="13" t="inlineStr">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="I22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" s="13" t="inlineStr">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="N22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O22" s="13" t="inlineStr">
@@ -12221,7 +12221,7 @@
       </c>
       <c r="S22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T22" s="13" t="inlineStr">
@@ -12244,7 +12244,7 @@
       </c>
       <c r="X22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y22" s="13" t="inlineStr">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="D23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" s="15" t="inlineStr">
@@ -12300,7 +12300,7 @@
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" s="15" t="inlineStr">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="S23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T23" s="15" t="inlineStr">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="X23" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y23" s="15" t="inlineStr">
@@ -12400,7 +12400,7 @@
       </c>
       <c r="D24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" s="15" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" s="15" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="N24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O24" s="15" t="inlineStr">
@@ -12469,7 +12469,7 @@
       </c>
       <c r="S24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T24" s="15" t="inlineStr">
@@ -12492,7 +12492,7 @@
       </c>
       <c r="X24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y24" s="15" t="inlineStr">
@@ -12523,7 +12523,7 @@
       </c>
       <c r="D25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" s="15" t="inlineStr">
@@ -12551,7 +12551,7 @@
       </c>
       <c r="N25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O25" s="15" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="X25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y25" s="15" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" s="15" t="inlineStr">
@@ -12681,7 +12681,7 @@
       </c>
       <c r="D27" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" s="13" t="inlineStr">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="I27" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" s="13" t="inlineStr">
@@ -12727,7 +12727,7 @@
       </c>
       <c r="N27" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O27" s="13" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="S27" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T27" s="13" t="inlineStr">
@@ -12773,7 +12773,7 @@
       </c>
       <c r="X27" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y27" s="13" t="inlineStr">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="D28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" s="13" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="I28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J28" s="13" t="inlineStr">
@@ -12850,7 +12850,7 @@
       </c>
       <c r="N28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O28" s="13" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="S28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T28" s="13" t="inlineStr">
@@ -12896,7 +12896,7 @@
       </c>
       <c r="X28" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y28" s="13" t="inlineStr">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="I29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" s="13" t="inlineStr">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="N29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O29" s="13" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="X29" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y29" s="13" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="N30" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O30" s="13" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="D31" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="15" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="I31" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" s="15" t="inlineStr">
@@ -13136,7 +13136,7 @@
       </c>
       <c r="S31" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T31" s="15" t="inlineStr">
@@ -13159,7 +13159,7 @@
       </c>
       <c r="X31" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y31" s="15" t="inlineStr">
@@ -13190,7 +13190,7 @@
       </c>
       <c r="D32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" s="15" t="inlineStr">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J32" s="15" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="N32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O32" s="15" t="inlineStr">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="S32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T32" s="15" t="inlineStr">
@@ -13282,7 +13282,7 @@
       </c>
       <c r="X32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y32" s="15" t="inlineStr">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="N33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O33" s="15" t="inlineStr">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="S34" s="20" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T34" s="20" t="inlineStr">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="13" t="inlineStr">
@@ -13745,7 +13745,7 @@
       </c>
       <c r="N4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O4" s="13" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" s="15" t="inlineStr">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="N5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="15" t="inlineStr">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="S5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T5" s="15" t="inlineStr">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="X5" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="15" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -13969,7 +13969,7 @@
       </c>
       <c r="X6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y6" s="13" t="inlineStr">
@@ -14002,7 +14002,7 @@
       </c>
       <c r="D7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="15" t="inlineStr">
@@ -14030,7 +14030,7 @@
       </c>
       <c r="N7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="15" t="inlineStr">
@@ -14053,7 +14053,7 @@
       </c>
       <c r="S7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="15" t="inlineStr">
@@ -14076,7 +14076,7 @@
       </c>
       <c r="X7" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="15" t="inlineStr">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -14132,7 +14132,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -14201,7 +14201,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -14234,7 +14234,7 @@
       </c>
       <c r="D9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" s="15" t="inlineStr">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" s="15" t="inlineStr">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="N9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O9" s="15" t="inlineStr">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="S9" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="15" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="D10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="I10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="13" t="inlineStr">
@@ -14387,7 +14387,7 @@
       </c>
       <c r="N10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="13" t="inlineStr">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="S10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="X10" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="13" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="D11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="I11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" s="17" t="inlineStr">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="S11" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="17" t="inlineStr">
@@ -14896,7 +14896,7 @@
       </c>
       <c r="S4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -15042,7 +15042,7 @@
       </c>
       <c r="X5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y5" s="13" t="inlineStr">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -15119,7 +15119,7 @@
       </c>
       <c r="N6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O6" s="13" t="inlineStr">
@@ -15142,7 +15142,7 @@
       </c>
       <c r="S6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" s="13" t="inlineStr">
@@ -15219,7 +15219,7 @@
       </c>
       <c r="I7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" s="13" t="inlineStr">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="N7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O7" s="13" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="S7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T7" s="13" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="X7" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y7" s="13" t="inlineStr">
@@ -15319,7 +15319,7 @@
       </c>
       <c r="D8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="I8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" s="13" t="inlineStr">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="N8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O8" s="13" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="S8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -15411,7 +15411,7 @@
       </c>
       <c r="X8" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y8" s="13" t="inlineStr">
@@ -15475,7 +15475,7 @@
       </c>
       <c r="S9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T9" s="13" t="inlineStr">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="X9" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y9" s="13" t="inlineStr">
@@ -15595,7 +15595,7 @@
       </c>
       <c r="S11" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T11" s="13" t="inlineStr">
@@ -15679,7 +15679,7 @@
       </c>
       <c r="N12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O12" s="15" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="S12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T12" s="15" t="inlineStr">
@@ -15756,7 +15756,7 @@
       </c>
       <c r="D13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" s="15" t="inlineStr">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="S13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T13" s="15" t="inlineStr">
@@ -15879,7 +15879,7 @@
       </c>
       <c r="D14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" s="15" t="inlineStr">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" s="15" t="inlineStr">
@@ -15948,7 +15948,7 @@
       </c>
       <c r="S14" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T14" s="15" t="inlineStr">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="N15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O15" s="15" t="inlineStr">
@@ -16071,7 +16071,7 @@
       </c>
       <c r="S15" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T15" s="15" t="inlineStr">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="D16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" s="15" t="inlineStr">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" s="15" t="inlineStr">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="N16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O16" s="15" t="inlineStr">
@@ -16194,7 +16194,7 @@
       </c>
       <c r="S16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T16" s="15" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="X16" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y16" s="15" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" s="15" t="inlineStr">
@@ -16322,7 +16322,7 @@
       </c>
       <c r="X17" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y17" s="15" t="inlineStr">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" s="15" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="S18" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T18" s="15" t="inlineStr">
@@ -16442,7 +16442,7 @@
       </c>
       <c r="D19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="X20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y20" s="13" t="inlineStr">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="D21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" s="13" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="I21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" s="13" t="inlineStr">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="D22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="N22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O22" s="13" t="inlineStr">
@@ -16903,7 +16903,7 @@
       </c>
       <c r="X22" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y22" s="13" t="inlineStr">
@@ -16934,7 +16934,7 @@
       </c>
       <c r="D23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" s="13" t="inlineStr">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="I23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" s="13" t="inlineStr">
@@ -16980,7 +16980,7 @@
       </c>
       <c r="N23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O23" s="13" t="inlineStr">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="S23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T23" s="13" t="inlineStr">
@@ -17026,7 +17026,7 @@
       </c>
       <c r="X23" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y23" s="13" t="inlineStr">
@@ -17057,7 +17057,7 @@
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" s="13" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="I24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" s="13" t="inlineStr">
@@ -17103,7 +17103,7 @@
       </c>
       <c r="N24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O24" s="13" t="inlineStr">
@@ -17126,7 +17126,7 @@
       </c>
       <c r="S24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T24" s="13" t="inlineStr">
@@ -17149,7 +17149,7 @@
       </c>
       <c r="X24" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y24" s="13" t="inlineStr">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="S25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T25" s="13" t="inlineStr">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="X25" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y25" s="13" t="inlineStr">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="N28" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O28" s="15" t="inlineStr">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="S28" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T28" s="15" t="inlineStr">
@@ -17553,7 +17553,7 @@
       </c>
       <c r="X28" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y28" s="15" t="inlineStr">
@@ -17584,7 +17584,7 @@
       </c>
       <c r="D29" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="15" t="inlineStr">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="I29" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" s="15" t="inlineStr">
@@ -17653,7 +17653,7 @@
       </c>
       <c r="S29" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T29" s="15" t="inlineStr">
@@ -17676,7 +17676,7 @@
       </c>
       <c r="X29" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y29" s="15" t="inlineStr">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="N30" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O30" s="15" t="inlineStr">
@@ -17799,7 +17799,7 @@
       </c>
       <c r="X30" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y30" s="15" t="inlineStr">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="D31" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="15" t="inlineStr">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="I31" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" s="15" t="inlineStr">
@@ -17953,7 +17953,7 @@
       </c>
       <c r="D32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" s="15" t="inlineStr">
@@ -17976,7 +17976,7 @@
       </c>
       <c r="I32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J32" s="15" t="inlineStr">
@@ -18022,7 +18022,7 @@
       </c>
       <c r="S32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T32" s="15" t="inlineStr">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="X32" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y32" s="15" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="I33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" s="15" t="inlineStr">
@@ -18150,7 +18150,7 @@
       </c>
       <c r="X33" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y33" s="15" t="inlineStr">
@@ -18186,7 +18186,7 @@
       </c>
       <c r="I34" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" s="15" t="inlineStr">
@@ -18265,7 +18265,7 @@
       </c>
       <c r="S35" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T35" s="15" t="inlineStr">
@@ -18518,7 +18518,7 @@
       </c>
       <c r="X37" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y37" s="13" t="inlineStr">
@@ -18549,7 +18549,7 @@
       </c>
       <c r="D38" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" s="13" t="inlineStr">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="I38" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J38" s="13" t="inlineStr">
@@ -18595,7 +18595,7 @@
       </c>
       <c r="N38" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O38" s="13" t="inlineStr">
@@ -18618,7 +18618,7 @@
       </c>
       <c r="S38" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T38" s="13" t="inlineStr">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="X38" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y38" s="13" t="inlineStr">
@@ -18695,7 +18695,7 @@
       </c>
       <c r="I39" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J39" s="13" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="X39" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y39" s="13" t="inlineStr">
@@ -18795,7 +18795,7 @@
       </c>
       <c r="D40" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E40" s="13" t="inlineStr">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="I40" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J40" s="13" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="N40" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O40" s="13" t="inlineStr">
@@ -18864,7 +18864,7 @@
       </c>
       <c r="S40" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T40" s="13" t="inlineStr">
@@ -18887,7 +18887,7 @@
       </c>
       <c r="X40" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y40" s="13" t="inlineStr">
@@ -18918,7 +18918,7 @@
       </c>
       <c r="D41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E41" s="13" t="inlineStr">
@@ -18987,7 +18987,7 @@
       </c>
       <c r="S41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T41" s="13" t="inlineStr">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="X41" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y41" s="13" t="inlineStr">
@@ -19041,7 +19041,7 @@
       </c>
       <c r="D42" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E42" s="13" t="inlineStr">
@@ -19092,7 +19092,7 @@
       </c>
       <c r="S42" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T42" s="13" t="inlineStr">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="N43" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O43" s="13" t="inlineStr">
@@ -19212,7 +19212,7 @@
       </c>
       <c r="S44" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T44" s="13" t="inlineStr">
@@ -19419,7 +19419,7 @@
       </c>
       <c r="N46" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O46" s="15" t="inlineStr">
@@ -19442,7 +19442,7 @@
       </c>
       <c r="S46" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T46" s="15" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="X46" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y46" s="15" t="inlineStr">
@@ -19519,7 +19519,7 @@
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J47" s="15" t="inlineStr">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="X47" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y47" s="15" t="inlineStr">
@@ -19665,7 +19665,7 @@
       </c>
       <c r="N48" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O48" s="15" t="inlineStr">
@@ -19688,7 +19688,7 @@
       </c>
       <c r="S48" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T48" s="15" t="inlineStr">
@@ -19711,7 +19711,7 @@
       </c>
       <c r="X48" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y48" s="15" t="inlineStr">
@@ -19742,7 +19742,7 @@
       </c>
       <c r="D49" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E49" s="15" t="inlineStr">
@@ -19765,7 +19765,7 @@
       </c>
       <c r="I49" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J49" s="15" t="inlineStr">
@@ -19788,7 +19788,7 @@
       </c>
       <c r="N49" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O49" s="15" t="inlineStr">
@@ -19811,7 +19811,7 @@
       </c>
       <c r="S49" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T49" s="15" t="inlineStr">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="X49" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y49" s="15" t="inlineStr">
@@ -19888,7 +19888,7 @@
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J50" s="15" t="inlineStr">
@@ -19911,7 +19911,7 @@
       </c>
       <c r="N50" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O50" s="15" t="inlineStr">
@@ -19934,7 +19934,7 @@
       </c>
       <c r="S50" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T50" s="15" t="inlineStr">
@@ -19957,7 +19957,7 @@
       </c>
       <c r="X50" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y50" s="15" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="I51" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J51" s="15" t="inlineStr">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="S51" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T51" s="15" t="inlineStr">
@@ -20121,7 +20121,7 @@
       </c>
       <c r="N52" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O52" s="15" t="inlineStr">
@@ -20164,7 +20164,7 @@
       </c>
       <c r="D53" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E53" s="13" t="inlineStr">
@@ -20233,7 +20233,7 @@
       </c>
       <c r="S53" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T53" s="13" t="inlineStr">
@@ -20256,7 +20256,7 @@
       </c>
       <c r="X53" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y53" s="13" t="inlineStr">
@@ -20333,7 +20333,7 @@
       </c>
       <c r="N54" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O54" s="13" t="inlineStr">
@@ -20379,7 +20379,7 @@
       </c>
       <c r="X54" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y54" s="13" t="inlineStr">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="D55" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E55" s="13" t="inlineStr">
@@ -20479,7 +20479,7 @@
       </c>
       <c r="S55" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T55" s="13" t="inlineStr">
@@ -20502,7 +20502,7 @@
       </c>
       <c r="X55" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y55" s="13" t="inlineStr">
@@ -20533,7 +20533,7 @@
       </c>
       <c r="D56" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E56" s="13" t="inlineStr">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="N56" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O56" s="13" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="S56" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T56" s="13" t="inlineStr">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="D57" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E57" s="13" t="inlineStr">
@@ -20679,7 +20679,7 @@
       </c>
       <c r="I57" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J57" s="13" t="inlineStr">
@@ -20702,7 +20702,7 @@
       </c>
       <c r="N57" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O57" s="13" t="inlineStr">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="S57" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T57" s="13" t="inlineStr">
@@ -20748,7 +20748,7 @@
       </c>
       <c r="X57" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y57" s="13" t="inlineStr">
@@ -20807,7 +20807,7 @@
       </c>
       <c r="N58" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O58" s="13" t="inlineStr">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="S58" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T58" s="13" t="inlineStr">
@@ -20853,7 +20853,7 @@
       </c>
       <c r="X58" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y58" s="13" t="inlineStr">
@@ -20886,7 +20886,7 @@
       </c>
       <c r="D59" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E59" s="15" t="inlineStr">
@@ -20978,7 +20978,7 @@
       </c>
       <c r="X59" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y59" s="15" t="inlineStr">
@@ -21032,7 +21032,7 @@
       </c>
       <c r="I60" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J60" s="15" t="inlineStr">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="N60" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O60" s="15" t="inlineStr">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="S60" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T60" s="15" t="inlineStr">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="X60" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y60" s="15" t="inlineStr">
@@ -21132,7 +21132,7 @@
       </c>
       <c r="D61" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E61" s="15" t="inlineStr">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="X61" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y61" s="15" t="inlineStr">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="D62" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" s="15" t="inlineStr">
@@ -21278,7 +21278,7 @@
       </c>
       <c r="I62" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J62" s="15" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="N62" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O62" s="15" t="inlineStr">
@@ -21324,7 +21324,7 @@
       </c>
       <c r="S62" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T62" s="15" t="inlineStr">
@@ -21347,7 +21347,7 @@
       </c>
       <c r="X62" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y62" s="15" t="inlineStr">
@@ -21378,7 +21378,7 @@
       </c>
       <c r="D63" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E63" s="15" t="inlineStr">
@@ -21424,7 +21424,7 @@
       </c>
       <c r="N63" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O63" s="15" t="inlineStr">
@@ -21447,7 +21447,7 @@
       </c>
       <c r="S63" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T63" s="15" t="inlineStr">
@@ -21488,7 +21488,7 @@
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J64" s="15" t="inlineStr">
@@ -21516,7 +21516,7 @@
       </c>
       <c r="S64" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T64" s="15" t="inlineStr">
@@ -21554,7 +21554,7 @@
       </c>
       <c r="D65" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E65" s="13" t="inlineStr">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="S65" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T65" s="13" t="inlineStr">
@@ -21646,7 +21646,7 @@
       </c>
       <c r="X65" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y65" s="13" t="inlineStr">
@@ -21723,7 +21723,7 @@
       </c>
       <c r="N66" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O66" s="13" t="inlineStr">
@@ -21746,7 +21746,7 @@
       </c>
       <c r="S66" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T66" s="13" t="inlineStr">
@@ -21769,7 +21769,7 @@
       </c>
       <c r="X66" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y66" s="13" t="inlineStr">
@@ -21800,7 +21800,7 @@
       </c>
       <c r="D67" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E67" s="13" t="inlineStr">
@@ -21823,7 +21823,7 @@
       </c>
       <c r="I67" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J67" s="13" t="inlineStr">
@@ -21887,7 +21887,7 @@
       </c>
       <c r="D68" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E68" s="13" t="inlineStr">
@@ -21933,7 +21933,7 @@
       </c>
       <c r="N68" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O68" s="13" t="inlineStr">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="I69" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J69" s="13" t="inlineStr">
@@ -22002,7 +22002,7 @@
       </c>
       <c r="N69" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O69" s="13" t="inlineStr">
@@ -22045,7 +22045,7 @@
       </c>
       <c r="D70" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E70" s="17" t="inlineStr">
@@ -22073,7 +22073,7 @@
       </c>
       <c r="N70" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O70" s="17" t="inlineStr">
@@ -22096,7 +22096,7 @@
       </c>
       <c r="S70" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T70" s="17" t="inlineStr">
@@ -22438,7 +22438,7 @@
       </c>
       <c r="I4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -22507,7 +22507,7 @@
       </c>
       <c r="X4" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y4" s="13" t="inlineStr">
@@ -22561,7 +22561,7 @@
       </c>
       <c r="I5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="N5" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O5" s="13" t="inlineStr">
@@ -22666,7 +22666,7 @@
       </c>
       <c r="I6" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" s="13" t="inlineStr">
@@ -23034,7 +23034,7 @@
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" s="15" t="inlineStr">
@@ -23057,7 +23057,7 @@
       </c>
       <c r="N10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O10" s="15" t="inlineStr">
@@ -23080,7 +23080,7 @@
       </c>
       <c r="S10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T10" s="15" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="X10" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y10" s="15" t="inlineStr">
@@ -23349,7 +23349,7 @@
       </c>
       <c r="X12" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y12" s="15" t="inlineStr">
@@ -23426,7 +23426,7 @@
       </c>
       <c r="N13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O13" s="15" t="inlineStr">
@@ -23472,7 +23472,7 @@
       </c>
       <c r="X13" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y13" s="15" t="inlineStr">
@@ -23730,7 +23730,7 @@
       </c>
       <c r="D17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" s="13" t="inlineStr">
@@ -23776,7 +23776,7 @@
       </c>
       <c r="N17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O17" s="13" t="inlineStr">
@@ -23799,7 +23799,7 @@
       </c>
       <c r="S17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T17" s="13" t="inlineStr">
@@ -23822,7 +23822,7 @@
       </c>
       <c r="X17" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y17" s="13" t="inlineStr">
@@ -23853,7 +23853,7 @@
       </c>
       <c r="D18" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -24022,7 +24022,7 @@
       </c>
       <c r="N19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O19" s="13" t="inlineStr">
@@ -24068,7 +24068,7 @@
       </c>
       <c r="X19" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y19" s="13" t="inlineStr">
@@ -24099,7 +24099,7 @@
       </c>
       <c r="D20" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" s="13" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="S21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T21" s="13" t="inlineStr">
@@ -24314,7 +24314,7 @@
       </c>
       <c r="X21" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y21" s="13" t="inlineStr">
@@ -24503,7 +24503,7 @@
       </c>
       <c r="D24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E24" s="15" t="inlineStr">
@@ -24526,7 +24526,7 @@
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" s="15" t="inlineStr">
@@ -24549,7 +24549,7 @@
       </c>
       <c r="N24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O24" s="15" t="inlineStr">
@@ -24572,7 +24572,7 @@
       </c>
       <c r="S24" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T24" s="15" t="inlineStr">
@@ -24718,7 +24718,7 @@
       </c>
       <c r="X25" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y25" s="15" t="inlineStr">
@@ -24749,7 +24749,7 @@
       </c>
       <c r="D26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" s="15" t="inlineStr">
@@ -24772,7 +24772,7 @@
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" s="15" t="inlineStr">
@@ -24841,7 +24841,7 @@
       </c>
       <c r="X26" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y26" s="15" t="inlineStr">
@@ -24872,7 +24872,7 @@
       </c>
       <c r="D27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" s="15" t="inlineStr">
@@ -24895,7 +24895,7 @@
       </c>
       <c r="I27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" s="15" t="inlineStr">
@@ -24918,7 +24918,7 @@
       </c>
       <c r="N27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O27" s="15" t="inlineStr">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="S27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T27" s="15" t="inlineStr">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="X27" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y27" s="15" t="inlineStr">
@@ -25064,7 +25064,7 @@
       </c>
       <c r="S28" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T28" s="15" t="inlineStr">
@@ -25205,7 +25205,7 @@
       </c>
       <c r="D30" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" s="15" t="inlineStr">
@@ -25276,7 +25276,7 @@
       </c>
       <c r="D31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
@@ -25299,7 +25299,7 @@
       </c>
       <c r="I31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" s="13" t="inlineStr">
@@ -25368,7 +25368,7 @@
       </c>
       <c r="X31" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y31" s="13" t="inlineStr">
@@ -25399,7 +25399,7 @@
       </c>
       <c r="D32" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E32" s="13" t="inlineStr">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="N32" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O32" s="13" t="inlineStr">
@@ -25522,7 +25522,7 @@
       </c>
       <c r="D33" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E33" s="13" t="inlineStr">
@@ -25614,7 +25614,7 @@
       </c>
       <c r="X33" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y33" s="13" t="inlineStr">
@@ -25645,7 +25645,7 @@
       </c>
       <c r="D34" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E34" s="13" t="inlineStr">
@@ -25696,7 +25696,7 @@
       </c>
       <c r="S34" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T34" s="13" t="inlineStr">
@@ -25773,7 +25773,7 @@
       </c>
       <c r="I35" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" s="13" t="inlineStr">
@@ -25801,7 +25801,7 @@
       </c>
       <c r="S35" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T35" s="13" t="inlineStr">
@@ -26031,7 +26031,7 @@
       </c>
       <c r="D38" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E38" s="15" t="inlineStr">
@@ -26077,7 +26077,7 @@
       </c>
       <c r="N38" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O38" s="15" t="inlineStr">
@@ -26100,7 +26100,7 @@
       </c>
       <c r="S38" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T38" s="15" t="inlineStr">
@@ -26123,7 +26123,7 @@
       </c>
       <c r="X38" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y38" s="15" t="inlineStr">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="N39" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O39" s="15" t="inlineStr">
@@ -26246,7 +26246,7 @@
       </c>
       <c r="X39" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y39" s="15" t="inlineStr">
@@ -26277,7 +26277,7 @@
       </c>
       <c r="D40" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E40" s="15" t="inlineStr">
@@ -26451,7 +26451,7 @@
       </c>
       <c r="S41" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T41" s="15" t="inlineStr">
@@ -26696,7 +26696,7 @@
       </c>
       <c r="D45" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E45" s="13" t="inlineStr">
@@ -26719,7 +26719,7 @@
       </c>
       <c r="I45" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J45" s="13" t="inlineStr">
@@ -26742,7 +26742,7 @@
       </c>
       <c r="N45" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O45" s="13" t="inlineStr">
@@ -26788,7 +26788,7 @@
       </c>
       <c r="X45" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y45" s="13" t="inlineStr">
@@ -26842,7 +26842,7 @@
       </c>
       <c r="I46" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J46" s="13" t="inlineStr">
@@ -26888,7 +26888,7 @@
       </c>
       <c r="S46" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T46" s="13" t="inlineStr">
@@ -26911,7 +26911,7 @@
       </c>
       <c r="X46" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y46" s="13" t="inlineStr">
@@ -26942,7 +26942,7 @@
       </c>
       <c r="D47" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E47" s="13" t="inlineStr">
@@ -27011,7 +27011,7 @@
       </c>
       <c r="S47" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T47" s="13" t="inlineStr">
@@ -27065,7 +27065,7 @@
       </c>
       <c r="D48" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E48" s="13" t="inlineStr">
@@ -27116,7 +27116,7 @@
       </c>
       <c r="S48" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T48" s="13" t="inlineStr">
@@ -27223,7 +27223,7 @@
       </c>
       <c r="D50" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E50" s="15" t="inlineStr">
@@ -27397,7 +27397,7 @@
       </c>
       <c r="S51" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T51" s="15" t="inlineStr">
@@ -27420,7 +27420,7 @@
       </c>
       <c r="X51" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y51" s="15" t="inlineStr">
@@ -27484,7 +27484,7 @@
       </c>
       <c r="S52" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T52" s="15" t="inlineStr">
@@ -27553,7 +27553,7 @@
       </c>
       <c r="S53" s="15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T53" s="15" t="inlineStr">
@@ -27591,7 +27591,7 @@
       </c>
       <c r="D54" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E54" s="13" t="inlineStr">
@@ -27642,7 +27642,7 @@
       </c>
       <c r="S54" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T54" s="13" t="inlineStr">
@@ -27665,7 +27665,7 @@
       </c>
       <c r="X54" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y54" s="13" t="inlineStr">
@@ -27711,7 +27711,7 @@
       </c>
       <c r="S55" s="13" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="T55" s="13" t="inlineStr">
@@ -27769,7 +27769,7 @@
       </c>
       <c r="X56" s="17" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="Y56" s="17" t="inlineStr">
